--- a/data/trans_media/IQ3002_MoAR-Estudios-trans_media.xlsx
+++ b/data/trans_media/IQ3002_MoAR-Estudios-trans_media.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores según la edad en meses en la que empezaron a comer cereales con gluten</t>
+          <t>Meses en la que empezaron a comer cereales con gluten</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,58; 10,84</t>
+          <t>6,51; 10,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,36; 8,72</t>
+          <t>7,42; 8,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 7,77</t>
+          <t>4,67; 7,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,91; 12,09</t>
+          <t>6,94; 11,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,17 +825,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,23; 8,39</t>
+          <t>6,24; 8,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,3; 10,27</t>
+          <t>7,34; 10,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,78</t>
+          <t>5,45; 10,0</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 7,08</t>
+          <t>6,1; 7,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,5; 8,83</t>
+          <t>7,47; 8,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,68; 7,86</t>
+          <t>6,68; 7,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 7,79</t>
+          <t>6,5; 7,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,41; 8,74</t>
+          <t>7,48; 8,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,8; 8,32</t>
+          <t>6,75; 8,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,42; 7,15</t>
+          <t>6,4; 7,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,6; 8,51</t>
+          <t>7,61; 8,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,86</t>
+          <t>6,88; 7,78</t>
         </is>
       </c>
     </row>
@@ -1015,17 +1015,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 7,76</t>
+          <t>6,19; 7,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,96</t>
+          <t>6,29; 8,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 7,39</t>
+          <t>5,81; 7,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1035,27 +1035,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,79; 8,85</t>
+          <t>6,71; 8,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 7,64</t>
+          <t>5,83; 7,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,58; 7,89</t>
+          <t>6,62; 7,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 8,06</t>
+          <t>6,73; 8,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,05; 7,25</t>
+          <t>6,02; 7,22</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,45; 7,3</t>
+          <t>6,43; 7,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,26; 8,2</t>
+          <t>7,3; 8,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,54; 7,44</t>
+          <t>6,54; 7,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,64; 7,68</t>
+          <t>6,6; 7,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,5; 8,57</t>
+          <t>7,53; 8,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,68; 7,81</t>
+          <t>6,67; 7,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,61; 7,29</t>
+          <t>6,63; 7,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,56; 8,26</t>
+          <t>7,55; 8,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,73; 7,44</t>
+          <t>6,7; 7,44</t>
         </is>
       </c>
     </row>
